--- a/biology/Neurosciences/Macrostructure/Macrostructure.xlsx
+++ b/biology/Neurosciences/Macrostructure/Macrostructure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une macrostructure est un modèle créé par Van Dijk et Kintsch[1] (1978) permettant une représentation schématique d'un texte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une macrostructure est un modèle créé par Van Dijk et Kintsch (1978) permettant une représentation schématique d'un texte.
 C'est le résumé d'un texte qu'en fait notre cerveau pour le retenir. Elle utilise des mécanismes de suppression, généralisation et d'intégration.
 </t>
         </is>
